--- a/df_list_20241220.xlsx
+++ b/df_list_20241220.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="221">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -586,6 +586,99 @@
   </si>
   <si>
     <t>신기술ㆍ특허 공법선정(D그룹) 심의위원회 평가결과 공개[목현 자연재해위험..</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>대구광역시 민간투자사업심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>대구광역시 민간투자사업심의위원회 위원 공개모집 재공고 취소</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>「광명시 음식물류폐기물 민간위탁 처리용역」제안서 평가위원회 평가결과 공개</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>전라도_정읍시</t>
+  </si>
+  <si>
+    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>매죽·매대 및 원종산 농촌마을하수도 설치사업  제안서 공법선정위원회 평가...</t>
+  </si>
+  <si>
+    <t>매죽·매대 및 원종산 농촌마을하수도 설치사업 공법선정 기술제안서 제출안내...</t>
+  </si>
+  <si>
+    <t>도시재생뉴딜사업(공기업제안형) 도시재생 활성화계획 변경 고시(경미한변경-...</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>용역 제안서 제출안내 공고(협상에 의한 계약, 긴급)(새로 공고)</t>
+  </si>
+  <si>
+    <t>2024년「다함께돌봄센터(마을돌봄터)」수탁자선정 심의위원회 심사 결과 공고</t>
+  </si>
+  <si>
+    <t>「구미 5국가산업단지 2-1단계 GIS DB 구축사업」제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>「2025년디지털 기반 노후 위험시설 안전관리시스템 유지보수 용역」제안서 평가위원 명단 및 평가결과 공개</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>「2025 울진대게와 붉은대게 축제 대행 용역」제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회(후보자) 모집 재공고(2차)(청도생활문화복합센터 공연장 무대조명장치 구매·설치)</t>
+  </si>
+  <si>
+    <t>25년 소화조 및 저류조 내부 보수공사  특정공법 제안서 제출 안내 공고</t>
   </si>
 </sst>
 </file>
@@ -596,7 +689,7 @@
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -618,6 +711,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -648,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -661,6 +758,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2124,19 +2230,266 @@
         <v>45646.62755787037</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="5">
+        <v>45644.0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="5">
+        <v>45644.0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="5">
+        <v>45644.0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="5">
+        <v>45646.0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="5">
+        <v>45646.0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="5">
+        <v>45645.0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="5">
+        <v>45646.0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="5">
+        <v>45646.0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="5">
+        <v>45645.0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="5">
+        <v>45644.0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="5">
+        <v>45645.0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="5">
+        <v>45644.0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="5">
+        <v>45645.0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>45646.975694444445</v>
+      </c>
+    </row>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
@@ -3063,9 +3416,24 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C63"/>
+    <hyperlink r:id="rId2" ref="C64"/>
+    <hyperlink r:id="rId3" ref="C65"/>
+    <hyperlink r:id="rId4" ref="C66"/>
+    <hyperlink r:id="rId5" ref="C67"/>
+    <hyperlink r:id="rId6" ref="C68"/>
+    <hyperlink r:id="rId7" ref="C69"/>
+    <hyperlink r:id="rId8" ref="C70"/>
+    <hyperlink r:id="rId9" ref="C71"/>
+    <hyperlink r:id="rId10" ref="C72"/>
+    <hyperlink r:id="rId11" ref="C73"/>
+    <hyperlink r:id="rId12" ref="C74"/>
+    <hyperlink r:id="rId13" location="list/1" ref="C75"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>